--- a/DESIGN/rules/Tutorial 1 - Introduction to Decision Tables/Tutorial1 - Intro to Decision Tables.xlsx
+++ b/DESIGN/rules/Tutorial 1 - Introduction to Decision Tables/Tutorial1 - Intro to Decision Tables.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\OpenL\draft docs for mercurial\tut and examples with logo\org.openl.rules.demo.tutorials\Tutorial 1 - Introduction to Decision Tables\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="11685" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="11685"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="4" r:id="rId1"/>
     <sheet name="Step1" sheetId="5" r:id="rId2"/>
     <sheet name="Step2" sheetId="6" r:id="rId3"/>
     <sheet name="Step3" sheetId="2" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="8" r:id="rId6"/>
-    <sheet name="Sheet3" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_st1">Step1!$C$8</definedName>
@@ -27,7 +29,7 @@
     <definedName name="_st33">Step3!$C$63</definedName>
     <definedName name="_st34">Step3!$C$105</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -38,7 +40,7 @@
     <author>Elena Poyasok</author>
   </authors>
   <commentList>
-    <comment ref="D25" authorId="0">
+    <comment ref="D25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D26" authorId="1">
+    <comment ref="D26" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -66,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D27" authorId="0">
+    <comment ref="D27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F27" authorId="0">
+    <comment ref="F27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D28" authorId="0">
+    <comment ref="D28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -162,7 +164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F28" authorId="0">
+    <comment ref="F28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -195,7 +197,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F31" authorId="1">
+    <comment ref="F31" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -209,7 +211,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F32" authorId="1">
+    <comment ref="F32" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -224,7 +226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D59" authorId="1">
+    <comment ref="D59" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -239,7 +241,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F59" authorId="1">
+    <comment ref="F59" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -253,7 +255,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D60" authorId="1">
+    <comment ref="D60" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -267,7 +269,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F60" authorId="1">
+    <comment ref="F60" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -281,7 +283,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E66" authorId="1">
+    <comment ref="E66" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -295,7 +297,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C71" authorId="1">
+    <comment ref="C71" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -309,7 +311,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D75" authorId="1">
+    <comment ref="D75" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -333,7 +335,7 @@
     <author>Elena Poyasok</author>
   </authors>
   <commentList>
-    <comment ref="D25" authorId="0">
+    <comment ref="D25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -347,7 +349,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E25" authorId="0">
+    <comment ref="E25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -361,7 +363,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E28" authorId="0">
+    <comment ref="E28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -375,7 +377,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F28" authorId="0">
+    <comment ref="F28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -389,7 +391,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D29" authorId="0">
+    <comment ref="D29" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -403,7 +405,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D69" authorId="0">
+    <comment ref="D69" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -427,7 +429,7 @@
     <author>Elena Poyasok</author>
   </authors>
   <commentList>
-    <comment ref="C23" authorId="0">
+    <comment ref="C23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -441,7 +443,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E81" authorId="0">
+    <comment ref="E81" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -455,7 +457,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E108" authorId="0">
+    <comment ref="E108" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -495,7 +497,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="118">
   <si>
     <t>Rule</t>
   </si>
@@ -1666,462 +1668,28 @@
   <si>
     <t>Country</t>
   </si>
-  <si>
-    <t>= (Short) 12</t>
-  </si>
-  <si>
-    <t>= (Short) 0</t>
-  </si>
-  <si>
-    <t>min &lt;= hour and hour &lt;= max</t>
-  </si>
-  <si>
-    <t>step</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>=1-0.9</t>
-  </si>
-  <si>
-    <t>'=1-0.9</t>
-  </si>
-  <si>
-    <t>=102.35</t>
-  </si>
-  <si>
-    <t>s11</t>
-  </si>
-  <si>
-    <t>s22</t>
-  </si>
-  <si>
-    <t>s33</t>
-  </si>
-  <si>
-    <t>s44</t>
-  </si>
-  <si>
-    <t>'=1042.35</t>
-  </si>
-  <si>
-    <t>=1042.35</t>
-  </si>
-  <si>
-    <t>'=$s22*$s11</t>
-  </si>
-  <si>
-    <t>=$s22*$s11</t>
-  </si>
-  <si>
-    <t>'=round($s33,2)</t>
-  </si>
-  <si>
-    <t>=round($s33,2)</t>
-  </si>
-  <si>
-    <t>excel</t>
-  </si>
-  <si>
-    <t>PFG case (with bug)</t>
-  </si>
-  <si>
-    <t>Test TestRoundSubstract TestRoundSubstractTest</t>
-  </si>
-  <si>
-    <t>Spreadsheet SpreadsheetResult TestRoundSubstract(Integer a)</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>_res_.$value$s44</t>
-  </si>
-  <si>
-    <t>=1002.35</t>
-  </si>
-  <si>
-    <t>similar case 1 but no bug</t>
-  </si>
-  <si>
-    <t>similar case 2 but no bug</t>
-  </si>
-  <si>
-    <t>Blue Owl case (with bug)</t>
-  </si>
-  <si>
-    <t>TotalPremium</t>
-  </si>
-  <si>
-    <t>= 10 * 1.06 * 0.95 * 1.5</t>
-  </si>
-  <si>
-    <t>= 10 * (1.06 * 0.95) * 1.5</t>
-  </si>
-  <si>
-    <t>TotalPremiumNoRound</t>
-  </si>
-  <si>
-    <t>'=round($TotalPremiumNoRound,2)</t>
-  </si>
-  <si>
-    <t>_res_.$value$TotalPremium</t>
-  </si>
-  <si>
-    <t>= round($TotalPremiumNoRound,2)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>'= 10 * (1.06 * 0.95) * 1.5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-BUT similar case (see column "similar case 1 but no bug")
- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">'= 10 * 1.06 * 0.95 * 1.5 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-without parentheses works correctly</t>
-    </r>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>aType</t>
-  </si>
-  <si>
-    <t>answers</t>
-  </si>
-  <si>
-    <t>String[]</t>
-  </si>
-  <si>
-    <t>Datatype Questionnaire</t>
-  </si>
-  <si>
-    <t>A Type</t>
-  </si>
-  <si>
-    <t>Answers</t>
-  </si>
-  <si>
-    <t>fjdk</t>
-  </si>
-  <si>
-    <t>fhldh</t>
-  </si>
-  <si>
-    <t>klfd</t>
-  </si>
-  <si>
-    <t>gdf</t>
-  </si>
-  <si>
-    <t>fgd</t>
-  </si>
-  <si>
-    <t>df</t>
-  </si>
-  <si>
-    <t>fhd</t>
-  </si>
-  <si>
-    <t>fhdh</t>
-  </si>
-  <si>
-    <t>fd</t>
-  </si>
-  <si>
-    <t>gd</t>
-  </si>
-  <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>Product Type</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>productType</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Home</t>
-  </si>
-  <si>
-    <t>Auto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SmartRules Collect Questionnaire[] QuestionInfo () </t>
-  </si>
-  <si>
-    <t>= QuestionInfo () [select first having productType == product]</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>SmartRules Questionnaire</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> DetermineQuestionListByProduct</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>( String product)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SmartRules Double </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Operations</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> (String operationType, Double a, Double b)</t>
-    </r>
-  </si>
-  <si>
-    <t>Operation</t>
-  </si>
-  <si>
-    <t>SUBSTRUCT</t>
-  </si>
-  <si>
-    <t>ADD</t>
-  </si>
-  <si>
-    <t>DIVIDE</t>
-  </si>
-  <si>
-    <t>MULTIPY</t>
-  </si>
-  <si>
-    <t>POW</t>
-  </si>
-  <si>
-    <t>= a - b</t>
-  </si>
-  <si>
-    <t>= a + b</t>
-  </si>
-  <si>
-    <t>= a / b</t>
-  </si>
-  <si>
-    <t>= a * b</t>
-  </si>
-  <si>
-    <t>= a ** b</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Test Operations </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>OperationsTest</t>
-    </r>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>operationType</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>_res_</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SmartRules DoubleValue </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Operations2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> (String operationType, DoubleValue a, DoubleValue b)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Test Operations2 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Operations2Test</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SmartRules Double </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Operations3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> (String operationType, Integer a, Integer b)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Test Operations3 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Operations3Test</t>
-    </r>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;_ ;_-@_ "/>
-    <numFmt numFmtId="165" formatCode="\ &quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;_ ;_-@_ "/>
+    <numFmt numFmtId="166" formatCode="\ &quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
@@ -2214,7 +1782,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="0" tint="-0.499984740745262"/>
+      <color theme="0" tint="-0.499984740745262" rgb="FFFFFF"/>
       <name val="Franklin Gothic Book"/>
       <family val="2"/>
       <charset val="204"/>
@@ -2244,50 +1812,8 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF00B050"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Franklin Gothic Book"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Franklin Gothic Book"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
   </fonts>
-  <fills count="12">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2302,19 +1828,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="0" rgb="FFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="0" tint="-0.34998626667073579" rgb="FFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.14999847407452621" rgb="FFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2336,26 +1862,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="39">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -2710,510 +2218,294 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color rgb="FFFFC91D"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0" xfId="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="3" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="3" fillId="5" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="3" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="3" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="3" fillId="5" borderId="7" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="3" fillId="5" borderId="10" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="3" fillId="5" borderId="13" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="3" fillId="5" borderId="14" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="15" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="16" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="17" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="4" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="3" fillId="5" borderId="19" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="5" borderId="20" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="5" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="3" fillId="5" borderId="21" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="5" borderId="14" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="5" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="3" fillId="5" borderId="22" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="5" borderId="23" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="5" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="5" borderId="24" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="5" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="3" fillId="5" borderId="26" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="26" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="5" borderId="27" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="5" borderId="27" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="15" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="28" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="28" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="29" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="25" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="5" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="5" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="5" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="5" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="5" borderId="13" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="5" borderId="14" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="5" borderId="23" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="5" borderId="24" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="3" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="30" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="5" borderId="19" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="5" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="5" borderId="30" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="5" borderId="30" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="3" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="3" fillId="5" borderId="19" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="30" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="3" fillId="5" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="4" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="5" borderId="4" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="3" fillId="5" borderId="3" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="35" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="35" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="3" fillId="5" borderId="36" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="37" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="37" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="3" fillId="5" borderId="37" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="38" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="5" borderId="38" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="3" fillId="5" borderId="35" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="37" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 5" xfId="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный 5" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3786,26 +3078,26 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B3:K40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="9.140625" style="3" collapsed="1"/>
-    <col min="10" max="10" width="19.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="9" style="3" width="9.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="3" width="19.140625" collapsed="true"/>
+    <col min="11" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
     </row>
     <row r="4" spans="2:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="43"/>
@@ -3840,184 +3132,184 @@
     </row>
     <row r="8" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
-      <c r="C8" s="88" t="s">
+      <c r="C8" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="90"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="90"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="90"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="90"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="90"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="90"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
       <c r="K17" s="4"/>
     </row>
     <row r="18" spans="2:11" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="12"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="90"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
       <c r="K18" s="12"/>
     </row>
     <row r="19" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="90"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="90"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
       <c r="K20" s="4"/>
     </row>
     <row r="21" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
       <c r="K21" s="4"/>
     </row>
     <row r="22" spans="2:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="91"/>
-      <c r="F22" s="91"/>
-      <c r="G22" s="91"/>
-      <c r="H22" s="91"/>
-      <c r="I22" s="91"/>
-      <c r="J22" s="91"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="76"/>
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4082,142 +3374,142 @@
     </row>
     <row r="28" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
-      <c r="C28" s="92" t="s">
+      <c r="C28" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="92"/>
-      <c r="J28" s="92"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="77"/>
       <c r="K28" s="4"/>
     </row>
     <row r="29" spans="2:11" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="12"/>
-      <c r="C29" s="86" t="s">
+      <c r="C29" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="86"/>
-      <c r="I29" s="86"/>
-      <c r="J29" s="86"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="71"/>
       <c r="K29" s="12"/>
     </row>
     <row r="30" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
-      <c r="C30" s="86" t="s">
+      <c r="C30" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="86"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="86"/>
-      <c r="I30" s="86"/>
-      <c r="J30" s="86"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="71"/>
       <c r="K30" s="4"/>
     </row>
     <row r="31" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
-      <c r="C31" s="86" t="s">
+      <c r="C31" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="D31" s="86"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="86"/>
-      <c r="G31" s="86"/>
-      <c r="H31" s="86"/>
-      <c r="I31" s="86"/>
-      <c r="J31" s="86"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="71"/>
       <c r="K31" s="4"/>
     </row>
     <row r="32" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
-      <c r="C32" s="86" t="s">
+      <c r="C32" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="D32" s="86"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="86"/>
-      <c r="G32" s="86"/>
-      <c r="H32" s="86"/>
-      <c r="I32" s="86"/>
-      <c r="J32" s="86"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="71"/>
       <c r="K32" s="4"/>
     </row>
     <row r="33" spans="2:11" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="12"/>
-      <c r="C33" s="86" t="s">
+      <c r="C33" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="D33" s="86"/>
-      <c r="E33" s="86"/>
-      <c r="F33" s="86"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="86"/>
-      <c r="I33" s="86"/>
-      <c r="J33" s="86"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="71"/>
+      <c r="I33" s="71"/>
+      <c r="J33" s="71"/>
       <c r="K33" s="12"/>
     </row>
     <row r="34" spans="2:11" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="12"/>
-      <c r="C34" s="86" t="s">
+      <c r="C34" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="D34" s="86"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="86"/>
-      <c r="H34" s="86"/>
-      <c r="I34" s="86"/>
-      <c r="J34" s="86"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="71"/>
       <c r="K34" s="12"/>
     </row>
     <row r="35" spans="2:11" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="12"/>
-      <c r="C35" s="86" t="s">
+      <c r="C35" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="D35" s="86"/>
-      <c r="E35" s="86"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="86"/>
-      <c r="H35" s="86"/>
-      <c r="I35" s="86"/>
-      <c r="J35" s="86"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="71"/>
+      <c r="I35" s="71"/>
+      <c r="J35" s="71"/>
       <c r="K35" s="12"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
-      <c r="C36" s="86" t="s">
+      <c r="C36" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="86"/>
-      <c r="E36" s="86"/>
-      <c r="F36" s="86"/>
-      <c r="G36" s="86"/>
-      <c r="H36" s="86"/>
-      <c r="I36" s="86"/>
-      <c r="J36" s="86"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="71"/>
+      <c r="I36" s="71"/>
+      <c r="J36" s="71"/>
       <c r="K36" s="4"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
-      <c r="C37" s="87" t="s">
+      <c r="C37" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="D37" s="87"/>
-      <c r="E37" s="87"/>
-      <c r="F37" s="87"/>
-      <c r="G37" s="87"/>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
-      <c r="J37" s="87"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="72"/>
       <c r="K37" s="4"/>
     </row>
     <row r="38" spans="2:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4296,31 +3588,29 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N117"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103:G113"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="19" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="10.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="8.140625" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="42.42578125" collapsed="true"/>
+    <col min="7" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:7" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:7" s="3" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
     </row>
     <row r="4" spans="2:7" s="3" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6"/>
@@ -4348,20 +3638,20 @@
     </row>
     <row r="8" spans="2:7" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
-      <c r="C8" s="95" t="s">
+      <c r="C8" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="2:7" s="3" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="7"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="2:7" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -4382,92 +3672,92 @@
     </row>
     <row r="12" spans="2:7" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="C12" s="99" t="s">
+      <c r="C12" s="84" t="s">
         <v>114</v>
       </c>
-      <c r="D12" s="99"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="2:7" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="2:7" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="2:7" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="100"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
       <c r="G15" s="9"/>
     </row>
     <row r="16" spans="2:7" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
       <c r="G16" s="9"/>
     </row>
     <row r="17" spans="2:7" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
       <c r="G17" s="9"/>
     </row>
     <row r="18" spans="2:7" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B18" s="12"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="100"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
       <c r="G18" s="12"/>
     </row>
     <row r="19" spans="2:7" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
-      <c r="C19" s="100"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="100"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
       <c r="G19" s="12"/>
     </row>
     <row r="20" spans="2:7" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B20" s="12"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="100"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
       <c r="G20" s="12"/>
     </row>
     <row r="21" spans="2:7" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B21" s="9"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="100"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
       <c r="G21" s="9"/>
     </row>
     <row r="22" spans="2:7" s="3" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="101"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
       <c r="G22" s="7"/>
     </row>
     <row r="23" spans="2:7" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -4489,11 +3779,11 @@
     <row r="25" spans="2:7" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
-      <c r="D25" s="94" t="s">
+      <c r="D25" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="E25" s="94"/>
-      <c r="F25" s="94"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
       <c r="G25" s="12"/>
     </row>
     <row r="26" spans="2:7" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.2">
@@ -4513,10 +3803,12 @@
     <row r="27" spans="2:7" s="8" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
-      <c r="D27" s="103" t="s">
+      <c r="D27" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E27" s="103"/>
+      <c r="E27" s="13" t="s">
+        <v>2</v>
+      </c>
       <c r="F27" s="13" t="s">
         <v>13</v>
       </c>
@@ -4525,10 +3817,12 @@
     <row r="28" spans="2:7" s="8" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
-      <c r="D28" s="71" t="s">
-        <v>120</v>
-      </c>
-      <c r="E28" s="71"/>
+      <c r="D28" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>4</v>
+      </c>
       <c r="F28" s="13" t="s">
         <v>14</v>
       </c>
@@ -4636,92 +3930,92 @@
     </row>
     <row r="37" spans="2:14" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B37" s="7"/>
-      <c r="C37" s="99" t="s">
+      <c r="C37" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="99"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="99"/>
+      <c r="D37" s="84"/>
+      <c r="E37" s="84"/>
+      <c r="F37" s="84"/>
       <c r="G37" s="7"/>
     </row>
     <row r="38" spans="2:14" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B38" s="9"/>
-      <c r="C38" s="100"/>
-      <c r="D38" s="100"/>
-      <c r="E38" s="100"/>
-      <c r="F38" s="100"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="85"/>
       <c r="G38" s="9"/>
     </row>
     <row r="39" spans="2:14" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B39" s="9"/>
-      <c r="C39" s="100"/>
-      <c r="D39" s="100"/>
-      <c r="E39" s="100"/>
-      <c r="F39" s="100"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="85"/>
+      <c r="F39" s="85"/>
       <c r="G39" s="9"/>
     </row>
     <row r="40" spans="2:14" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B40" s="9"/>
-      <c r="C40" s="100"/>
-      <c r="D40" s="100"/>
-      <c r="E40" s="100"/>
-      <c r="F40" s="100"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="85"/>
+      <c r="F40" s="85"/>
       <c r="G40" s="9"/>
     </row>
     <row r="41" spans="2:14" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B41" s="9"/>
-      <c r="C41" s="100"/>
-      <c r="D41" s="100"/>
-      <c r="E41" s="100"/>
-      <c r="F41" s="100"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="85"/>
+      <c r="F41" s="85"/>
       <c r="G41" s="9"/>
     </row>
     <row r="42" spans="2:14" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B42" s="9"/>
-      <c r="C42" s="100"/>
-      <c r="D42" s="100"/>
-      <c r="E42" s="100"/>
-      <c r="F42" s="100"/>
+      <c r="C42" s="85"/>
+      <c r="D42" s="85"/>
+      <c r="E42" s="85"/>
+      <c r="F42" s="85"/>
       <c r="G42" s="9"/>
     </row>
     <row r="43" spans="2:14" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B43" s="9"/>
-      <c r="C43" s="100"/>
-      <c r="D43" s="100"/>
-      <c r="E43" s="100"/>
-      <c r="F43" s="100"/>
+      <c r="C43" s="85"/>
+      <c r="D43" s="85"/>
+      <c r="E43" s="85"/>
+      <c r="F43" s="85"/>
       <c r="G43" s="9"/>
     </row>
     <row r="44" spans="2:14" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B44" s="9"/>
-      <c r="C44" s="100"/>
-      <c r="D44" s="100"/>
-      <c r="E44" s="100"/>
-      <c r="F44" s="100"/>
+      <c r="C44" s="85"/>
+      <c r="D44" s="85"/>
+      <c r="E44" s="85"/>
+      <c r="F44" s="85"/>
       <c r="G44" s="9"/>
     </row>
     <row r="45" spans="2:14" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B45" s="9"/>
-      <c r="C45" s="100"/>
-      <c r="D45" s="100"/>
-      <c r="E45" s="100"/>
-      <c r="F45" s="100"/>
+      <c r="C45" s="85"/>
+      <c r="D45" s="85"/>
+      <c r="E45" s="85"/>
+      <c r="F45" s="85"/>
       <c r="G45" s="9"/>
     </row>
     <row r="46" spans="2:14" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B46" s="7"/>
-      <c r="C46" s="100"/>
-      <c r="D46" s="100"/>
-      <c r="E46" s="100"/>
-      <c r="F46" s="100"/>
+      <c r="C46" s="85"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="85"/>
       <c r="G46" s="7"/>
     </row>
     <row r="47" spans="2:14" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B47" s="7"/>
-      <c r="C47" s="101"/>
-      <c r="D47" s="101"/>
-      <c r="E47" s="101"/>
-      <c r="F47" s="101"/>
+      <c r="C47" s="86"/>
+      <c r="D47" s="86"/>
+      <c r="E47" s="86"/>
+      <c r="F47" s="86"/>
       <c r="G47" s="7"/>
       <c r="L47" s="11"/>
       <c r="M47" s="11"/>
@@ -4748,44 +4042,44 @@
     </row>
     <row r="50" spans="2:13" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B50" s="9"/>
-      <c r="C50" s="99" t="s">
+      <c r="C50" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="D50" s="99"/>
-      <c r="E50" s="99"/>
-      <c r="F50" s="99"/>
+      <c r="D50" s="84"/>
+      <c r="E50" s="84"/>
+      <c r="F50" s="84"/>
       <c r="G50" s="9"/>
     </row>
     <row r="51" spans="2:13" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B51" s="9"/>
-      <c r="C51" s="100"/>
-      <c r="D51" s="100"/>
-      <c r="E51" s="100"/>
-      <c r="F51" s="100"/>
+      <c r="C51" s="85"/>
+      <c r="D51" s="85"/>
+      <c r="E51" s="85"/>
+      <c r="F51" s="85"/>
       <c r="G51" s="9"/>
     </row>
     <row r="52" spans="2:13" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B52" s="9"/>
-      <c r="C52" s="100"/>
-      <c r="D52" s="100"/>
-      <c r="E52" s="100"/>
-      <c r="F52" s="100"/>
+      <c r="C52" s="85"/>
+      <c r="D52" s="85"/>
+      <c r="E52" s="85"/>
+      <c r="F52" s="85"/>
       <c r="G52" s="9"/>
     </row>
     <row r="53" spans="2:13" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B53" s="9"/>
-      <c r="C53" s="100"/>
-      <c r="D53" s="100"/>
-      <c r="E53" s="100"/>
-      <c r="F53" s="100"/>
+      <c r="C53" s="85"/>
+      <c r="D53" s="85"/>
+      <c r="E53" s="85"/>
+      <c r="F53" s="85"/>
       <c r="G53" s="9"/>
     </row>
     <row r="54" spans="2:13" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B54" s="9"/>
-      <c r="C54" s="101"/>
-      <c r="D54" s="101"/>
-      <c r="E54" s="101"/>
-      <c r="F54" s="101"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
       <c r="G54" s="9"/>
     </row>
     <row r="55" spans="2:13" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -4807,11 +4101,11 @@
     <row r="57" spans="2:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
-      <c r="D57" s="94" t="s">
+      <c r="D57" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="E57" s="94"/>
-      <c r="F57" s="94"/>
+      <c r="E57" s="79"/>
+      <c r="F57" s="79"/>
       <c r="G57" s="12"/>
     </row>
     <row r="58" spans="2:13" ht="13.5" x14ac:dyDescent="0.2">
@@ -4963,12 +4257,12 @@
     </row>
     <row r="70" spans="2:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B70" s="12"/>
-      <c r="C70" s="94" t="s">
+      <c r="C70" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="D70" s="94"/>
-      <c r="E70" s="94"/>
-      <c r="F70" s="94"/>
+      <c r="D70" s="79"/>
+      <c r="E70" s="79"/>
+      <c r="F70" s="79"/>
       <c r="G70" s="12"/>
     </row>
     <row r="71" spans="2:13" ht="13.5" x14ac:dyDescent="0.2">
@@ -5034,7 +4328,7 @@
       <c r="C75" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="98" t="s">
+      <c r="D75" s="83" t="s">
         <v>22</v>
       </c>
       <c r="E75" s="23" t="s">
@@ -5051,7 +4345,7 @@
       <c r="C76" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="97"/>
+      <c r="D76" s="82"/>
       <c r="E76" s="25" t="s">
         <v>24</v>
       </c>
@@ -5066,7 +4360,7 @@
       <c r="C77" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="97" t="s">
+      <c r="D77" s="82" t="s">
         <v>25</v>
       </c>
       <c r="E77" s="25" t="s">
@@ -5083,7 +4377,7 @@
       <c r="C78" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="97"/>
+      <c r="D78" s="82"/>
       <c r="E78" s="25" t="s">
         <v>24</v>
       </c>
@@ -5133,20 +4427,20 @@
     </row>
     <row r="83" spans="1:7" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B83" s="9"/>
-      <c r="C83" s="99" t="s">
+      <c r="C83" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="D83" s="99"/>
-      <c r="E83" s="99"/>
-      <c r="F83" s="99"/>
+      <c r="D83" s="84"/>
+      <c r="E83" s="84"/>
+      <c r="F83" s="84"/>
       <c r="G83" s="9"/>
     </row>
     <row r="84" spans="1:7" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B84" s="9"/>
-      <c r="C84" s="101"/>
-      <c r="D84" s="101"/>
-      <c r="E84" s="101"/>
-      <c r="F84" s="101"/>
+      <c r="C84" s="86"/>
+      <c r="D84" s="86"/>
+      <c r="E84" s="86"/>
+      <c r="F84" s="86"/>
       <c r="G84" s="9"/>
     </row>
     <row r="85" spans="1:7" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -5192,12 +4486,12 @@
     <row r="90" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
       <c r="B90" s="12"/>
-      <c r="C90" s="102" t="s">
+      <c r="C90" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="D90" s="102"/>
-      <c r="E90" s="102"/>
-      <c r="F90" s="102"/>
+      <c r="D90" s="87"/>
+      <c r="E90" s="87"/>
+      <c r="F90" s="87"/>
       <c r="G90" s="12"/>
     </row>
     <row r="91" spans="1:7" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -5218,84 +4512,84 @@
     </row>
     <row r="93" spans="1:7" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B93" s="12"/>
-      <c r="C93" s="99" t="s">
+      <c r="C93" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="D93" s="99"/>
-      <c r="E93" s="99"/>
-      <c r="F93" s="99"/>
+      <c r="D93" s="84"/>
+      <c r="E93" s="84"/>
+      <c r="F93" s="84"/>
       <c r="G93" s="12"/>
     </row>
     <row r="94" spans="1:7" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B94" s="12"/>
-      <c r="C94" s="100"/>
-      <c r="D94" s="100"/>
-      <c r="E94" s="100"/>
-      <c r="F94" s="100"/>
+      <c r="C94" s="85"/>
+      <c r="D94" s="85"/>
+      <c r="E94" s="85"/>
+      <c r="F94" s="85"/>
       <c r="G94" s="12"/>
     </row>
     <row r="95" spans="1:7" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B95" s="12"/>
-      <c r="C95" s="100"/>
-      <c r="D95" s="100"/>
-      <c r="E95" s="100"/>
-      <c r="F95" s="100"/>
+      <c r="C95" s="85"/>
+      <c r="D95" s="85"/>
+      <c r="E95" s="85"/>
+      <c r="F95" s="85"/>
       <c r="G95" s="12"/>
     </row>
     <row r="96" spans="1:7" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B96" s="12"/>
-      <c r="C96" s="100"/>
-      <c r="D96" s="100"/>
-      <c r="E96" s="100"/>
-      <c r="F96" s="100"/>
+      <c r="C96" s="85"/>
+      <c r="D96" s="85"/>
+      <c r="E96" s="85"/>
+      <c r="F96" s="85"/>
       <c r="G96" s="12"/>
     </row>
     <row r="97" spans="2:7" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B97" s="12"/>
-      <c r="C97" s="100"/>
-      <c r="D97" s="100"/>
-      <c r="E97" s="100"/>
-      <c r="F97" s="100"/>
+      <c r="C97" s="85"/>
+      <c r="D97" s="85"/>
+      <c r="E97" s="85"/>
+      <c r="F97" s="85"/>
       <c r="G97" s="12"/>
     </row>
     <row r="98" spans="2:7" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B98" s="12"/>
-      <c r="C98" s="100"/>
-      <c r="D98" s="100"/>
-      <c r="E98" s="100"/>
-      <c r="F98" s="100"/>
+      <c r="C98" s="85"/>
+      <c r="D98" s="85"/>
+      <c r="E98" s="85"/>
+      <c r="F98" s="85"/>
       <c r="G98" s="12"/>
     </row>
     <row r="99" spans="2:7" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B99" s="12"/>
-      <c r="C99" s="100"/>
-      <c r="D99" s="100"/>
-      <c r="E99" s="100"/>
-      <c r="F99" s="100"/>
+      <c r="C99" s="85"/>
+      <c r="D99" s="85"/>
+      <c r="E99" s="85"/>
+      <c r="F99" s="85"/>
       <c r="G99" s="12"/>
     </row>
     <row r="100" spans="2:7" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B100" s="12"/>
-      <c r="C100" s="100"/>
-      <c r="D100" s="100"/>
-      <c r="E100" s="100"/>
-      <c r="F100" s="100"/>
+      <c r="C100" s="85"/>
+      <c r="D100" s="85"/>
+      <c r="E100" s="85"/>
+      <c r="F100" s="85"/>
       <c r="G100" s="12"/>
     </row>
     <row r="101" spans="2:7" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B101" s="12"/>
-      <c r="C101" s="100"/>
-      <c r="D101" s="100"/>
-      <c r="E101" s="100"/>
-      <c r="F101" s="100"/>
+      <c r="C101" s="85"/>
+      <c r="D101" s="85"/>
+      <c r="E101" s="85"/>
+      <c r="F101" s="85"/>
       <c r="G101" s="12"/>
     </row>
     <row r="102" spans="2:7" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B102" s="12"/>
-      <c r="C102" s="101"/>
-      <c r="D102" s="101"/>
-      <c r="E102" s="101"/>
-      <c r="F102" s="101"/>
+      <c r="C102" s="86"/>
+      <c r="D102" s="86"/>
+      <c r="E102" s="86"/>
+      <c r="F102" s="86"/>
       <c r="G102" s="12"/>
     </row>
     <row r="103" spans="2:7" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -5317,11 +4611,11 @@
     <row r="105" spans="2:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B105" s="12"/>
       <c r="C105" s="12"/>
-      <c r="D105" s="94" t="s">
+      <c r="D105" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="E105" s="94"/>
-      <c r="F105" s="94"/>
+      <c r="E105" s="79"/>
+      <c r="F105" s="79"/>
       <c r="G105" s="12"/>
     </row>
     <row r="106" spans="2:7" s="11" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -5457,7 +4751,7 @@
       <c r="G117" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="14">
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="D57:F57"/>
     <mergeCell ref="D105:F105"/>
@@ -5472,7 +4766,6 @@
     <mergeCell ref="C83:F84"/>
     <mergeCell ref="C37:F47"/>
     <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D27:E27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D115" location="_st2" tooltip="Step2. Lookup Table and its structure" display="Step 2."/>
@@ -5490,32 +4783,30 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:K81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D68" sqref="D68:H68"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="8" collapsed="1"/>
-    <col min="3" max="3" width="7.7109375" style="8" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="55.42578125" style="8" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.42578125" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.5703125" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.28515625" style="8" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.140625" style="8" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="8" collapsed="1"/>
+    <col min="1" max="2" style="8" width="9.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="8" width="7.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="8" width="55.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="8" width="16.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="8" width="12.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="8" width="14.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="8" width="16.140625" collapsed="true"/>
+    <col min="9" max="16384" style="8" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:9" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:9" s="11" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="104"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="88"/>
     </row>
     <row r="4" spans="2:9" s="11" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="65"/>
@@ -5547,22 +4838,22 @@
     </row>
     <row r="8" spans="2:9" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B8" s="12"/>
-      <c r="C8" s="95" t="s">
+      <c r="C8" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
     </row>
     <row r="9" spans="2:9" s="11" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="12"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -5589,102 +4880,102 @@
     </row>
     <row r="12" spans="2:9" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
-      <c r="C12" s="99" t="s">
+      <c r="C12" s="84" t="s">
         <v>111</v>
       </c>
-      <c r="D12" s="99"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
     </row>
     <row r="13" spans="2:9" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B13" s="12"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
     </row>
     <row r="14" spans="2:9" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
     </row>
     <row r="15" spans="2:9" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="100"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
     </row>
     <row r="16" spans="2:9" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
     </row>
     <row r="17" spans="2:11" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
     </row>
     <row r="18" spans="2:11" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B18" s="12"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="100"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
     </row>
     <row r="19" spans="2:11" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
-      <c r="C19" s="100"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="100"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
     </row>
     <row r="20" spans="2:11" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B20" s="12"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="100"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
     </row>
     <row r="21" spans="2:11" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B21" s="12"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="101"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
@@ -5712,11 +5003,11 @@
     <row r="24" spans="2:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
-      <c r="D24" s="94" t="s">
+      <c r="D24" s="79" t="s">
         <v>116</v>
       </c>
-      <c r="E24" s="94"/>
-      <c r="F24" s="94"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
@@ -5820,10 +5111,10 @@
       <c r="D31" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="108">
+      <c r="E31" s="92">
         <v>500</v>
       </c>
-      <c r="F31" s="109"/>
+      <c r="F31" s="93"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
@@ -5880,12 +5171,12 @@
     </row>
     <row r="37" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="12"/>
-      <c r="C37" s="102" t="s">
+      <c r="C37" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="D37" s="102"/>
-      <c r="E37" s="102"/>
-      <c r="F37" s="102"/>
+      <c r="D37" s="87"/>
+      <c r="E37" s="87"/>
+      <c r="F37" s="87"/>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
@@ -5912,42 +5203,42 @@
     </row>
     <row r="40" spans="2:9" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B40" s="12"/>
-      <c r="C40" s="99" t="s">
+      <c r="C40" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="D40" s="99"/>
-      <c r="E40" s="99"/>
-      <c r="F40" s="99"/>
+      <c r="D40" s="84"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="84"/>
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
     </row>
     <row r="41" spans="2:9" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B41" s="12"/>
-      <c r="C41" s="100"/>
-      <c r="D41" s="100"/>
-      <c r="E41" s="100"/>
-      <c r="F41" s="100"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="85"/>
+      <c r="F41" s="85"/>
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
     </row>
     <row r="42" spans="2:9" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B42" s="12"/>
-      <c r="C42" s="100"/>
-      <c r="D42" s="100"/>
-      <c r="E42" s="100"/>
-      <c r="F42" s="100"/>
+      <c r="C42" s="85"/>
+      <c r="D42" s="85"/>
+      <c r="E42" s="85"/>
+      <c r="F42" s="85"/>
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
     </row>
     <row r="43" spans="2:9" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B43" s="12"/>
-      <c r="C43" s="101"/>
-      <c r="D43" s="101"/>
-      <c r="E43" s="101"/>
-      <c r="F43" s="101"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
@@ -5975,11 +5266,11 @@
     <row r="46" spans="2:9" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
-      <c r="D46" s="94" t="s">
+      <c r="D46" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="E46" s="94"/>
-      <c r="F46" s="94"/>
+      <c r="E46" s="79"/>
+      <c r="F46" s="79"/>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
@@ -6038,10 +5329,10 @@
       <c r="D50" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E50" s="106">
+      <c r="E50" s="90">
         <v>500</v>
       </c>
-      <c r="F50" s="107"/>
+      <c r="F50" s="91"/>
       <c r="G50" s="12"/>
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
@@ -6068,22 +5359,22 @@
     </row>
     <row r="53" spans="2:9" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B53" s="12"/>
-      <c r="C53" s="99" t="s">
+      <c r="C53" s="84" t="s">
         <v>112</v>
       </c>
-      <c r="D53" s="99"/>
-      <c r="E53" s="99"/>
-      <c r="F53" s="99"/>
+      <c r="D53" s="84"/>
+      <c r="E53" s="84"/>
+      <c r="F53" s="84"/>
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
       <c r="I53" s="12"/>
     </row>
     <row r="54" spans="2:9" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="12"/>
-      <c r="C54" s="101"/>
-      <c r="D54" s="101"/>
-      <c r="E54" s="101"/>
-      <c r="F54" s="101"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
@@ -6140,12 +5431,12 @@
     </row>
     <row r="60" spans="2:9" s="11" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="12"/>
-      <c r="C60" s="102" t="s">
+      <c r="C60" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="102"/>
-      <c r="E60" s="102"/>
-      <c r="F60" s="102"/>
+      <c r="D60" s="87"/>
+      <c r="E60" s="87"/>
+      <c r="F60" s="87"/>
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
       <c r="I60" s="12"/>
@@ -6172,32 +5463,32 @@
     </row>
     <row r="63" spans="2:9" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B63" s="12"/>
-      <c r="C63" s="99" t="s">
+      <c r="C63" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="D63" s="99"/>
-      <c r="E63" s="99"/>
-      <c r="F63" s="99"/>
+      <c r="D63" s="84"/>
+      <c r="E63" s="84"/>
+      <c r="F63" s="84"/>
       <c r="G63" s="12"/>
       <c r="H63" s="12"/>
       <c r="I63" s="12"/>
     </row>
     <row r="64" spans="2:9" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B64" s="12"/>
-      <c r="C64" s="100"/>
-      <c r="D64" s="100"/>
-      <c r="E64" s="100"/>
-      <c r="F64" s="100"/>
+      <c r="C64" s="85"/>
+      <c r="D64" s="85"/>
+      <c r="E64" s="85"/>
+      <c r="F64" s="85"/>
       <c r="G64" s="12"/>
       <c r="H64" s="12"/>
       <c r="I64" s="12"/>
     </row>
     <row r="65" spans="2:9" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B65" s="12"/>
-      <c r="C65" s="101"/>
-      <c r="D65" s="101"/>
-      <c r="E65" s="101"/>
-      <c r="F65" s="101"/>
+      <c r="C65" s="86"/>
+      <c r="D65" s="86"/>
+      <c r="E65" s="86"/>
+      <c r="F65" s="86"/>
       <c r="G65" s="12"/>
       <c r="H65" s="12"/>
       <c r="I65" s="12"/>
@@ -6225,35 +5516,35 @@
     <row r="68" spans="2:9" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
-      <c r="D68" s="94" t="s">
+      <c r="D68" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="E68" s="94"/>
-      <c r="F68" s="94"/>
-      <c r="G68" s="94"/>
-      <c r="H68" s="94"/>
+      <c r="E68" s="79"/>
+      <c r="F68" s="79"/>
+      <c r="G68" s="79"/>
+      <c r="H68" s="79"/>
       <c r="I68" s="12"/>
     </row>
     <row r="69" spans="2:9" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
-      <c r="D69" s="105" t="s">
+      <c r="D69" s="89" t="s">
         <v>117</v>
       </c>
-      <c r="E69" s="110" t="s">
+      <c r="E69" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="F69" s="110"/>
-      <c r="G69" s="110" t="s">
+      <c r="F69" s="94"/>
+      <c r="G69" s="94" t="s">
         <v>56</v>
       </c>
-      <c r="H69" s="110"/>
+      <c r="H69" s="94"/>
       <c r="I69" s="12"/>
     </row>
     <row r="70" spans="2:9" s="11" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
-      <c r="D70" s="105"/>
+      <c r="D70" s="89"/>
       <c r="E70" s="52" t="s">
         <v>57</v>
       </c>
@@ -6274,8 +5565,8 @@
       <c r="D71" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E71" s="53">
-        <v>55150</v>
+      <c r="E71" s="53" t="n">
+        <v>55156.0</v>
       </c>
       <c r="F71" s="56">
         <v>47350</v>
@@ -6455,22 +5746,20 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:N127"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:J26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -6493,12 +5782,12 @@
     </row>
     <row r="3" spans="1:11" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -6550,12 +5839,12 @@
     </row>
     <row r="8" spans="1:11" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B8" s="12"/>
-      <c r="C8" s="95" t="s">
+      <c r="C8" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
@@ -6564,10 +5853,10 @@
     </row>
     <row r="9" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -6600,12 +5889,12 @@
     </row>
     <row r="12" spans="1:11" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B12" s="12"/>
-      <c r="C12" s="99" t="s">
+      <c r="C12" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="99"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
@@ -6614,10 +5903,10 @@
     </row>
     <row r="13" spans="1:11" s="8" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B13" s="12"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
@@ -6626,10 +5915,10 @@
     </row>
     <row r="14" spans="1:11" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B14" s="12"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
@@ -6698,12 +5987,12 @@
     </row>
     <row r="20" spans="2:11" s="8" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="12"/>
-      <c r="C20" s="111" t="s">
+      <c r="C20" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="111"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="111"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="96"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
@@ -6736,16 +6025,16 @@
     </row>
     <row r="23" spans="2:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B23" s="12"/>
-      <c r="C23" s="94" t="s">
+      <c r="C23" s="79" t="s">
         <v>102</v>
       </c>
-      <c r="D23" s="94"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="94"/>
-      <c r="G23" s="94"/>
-      <c r="H23" s="94"/>
-      <c r="I23" s="94"/>
-      <c r="J23" s="94"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="79"/>
       <c r="K23" s="12"/>
     </row>
     <row r="24" spans="2:11" ht="13.5" x14ac:dyDescent="0.2">
@@ -6762,8 +6051,8 @@
       <c r="F24" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="G24" s="36" t="s">
-        <v>119</v>
+      <c r="G24" s="36">
+        <v>0</v>
       </c>
       <c r="H24" s="37">
         <v>12</v>
@@ -6852,12 +6141,12 @@
     </row>
     <row r="29" spans="2:11" s="8" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B29" s="12"/>
-      <c r="C29" s="99" t="s">
+      <c r="C29" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="99"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="99"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="84"/>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
@@ -6866,10 +6155,10 @@
     </row>
     <row r="30" spans="2:11" s="8" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B30" s="12"/>
-      <c r="C30" s="100"/>
-      <c r="D30" s="100"/>
-      <c r="E30" s="100"/>
-      <c r="F30" s="100"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="85"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
@@ -6878,10 +6167,10 @@
     </row>
     <row r="31" spans="2:11" s="8" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B31" s="12"/>
-      <c r="C31" s="100"/>
-      <c r="D31" s="100"/>
-      <c r="E31" s="100"/>
-      <c r="F31" s="100"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="85"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
@@ -6890,10 +6179,10 @@
     </row>
     <row r="32" spans="2:11" s="8" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B32" s="12"/>
-      <c r="C32" s="100"/>
-      <c r="D32" s="100"/>
-      <c r="E32" s="100"/>
-      <c r="F32" s="100"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="85"/>
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
@@ -6902,10 +6191,10 @@
     </row>
     <row r="33" spans="2:11" s="8" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B33" s="12"/>
-      <c r="C33" s="101"/>
-      <c r="D33" s="101"/>
-      <c r="E33" s="101"/>
-      <c r="F33" s="101"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="86"/>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
@@ -6974,12 +6263,12 @@
     </row>
     <row r="39" spans="2:11" s="8" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="12"/>
-      <c r="C39" s="102" t="s">
+      <c r="C39" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="D39" s="102"/>
-      <c r="E39" s="102"/>
-      <c r="F39" s="102"/>
+      <c r="D39" s="87"/>
+      <c r="E39" s="87"/>
+      <c r="F39" s="87"/>
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
@@ -7012,12 +6301,12 @@
     </row>
     <row r="42" spans="2:11" s="8" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B42" s="12"/>
-      <c r="C42" s="99" t="s">
+      <c r="C42" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="D42" s="99"/>
-      <c r="E42" s="99"/>
-      <c r="F42" s="99"/>
+      <c r="D42" s="84"/>
+      <c r="E42" s="84"/>
+      <c r="F42" s="84"/>
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
@@ -7026,10 +6315,10 @@
     </row>
     <row r="43" spans="2:11" s="8" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B43" s="12"/>
-      <c r="C43" s="100"/>
-      <c r="D43" s="100"/>
-      <c r="E43" s="100"/>
-      <c r="F43" s="100"/>
+      <c r="C43" s="85"/>
+      <c r="D43" s="85"/>
+      <c r="E43" s="85"/>
+      <c r="F43" s="85"/>
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
@@ -7038,10 +6327,10 @@
     </row>
     <row r="44" spans="2:11" s="8" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B44" s="12"/>
-      <c r="C44" s="100"/>
-      <c r="D44" s="100"/>
-      <c r="E44" s="100"/>
-      <c r="F44" s="100"/>
+      <c r="C44" s="85"/>
+      <c r="D44" s="85"/>
+      <c r="E44" s="85"/>
+      <c r="F44" s="85"/>
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
@@ -7050,10 +6339,10 @@
     </row>
     <row r="45" spans="2:11" s="8" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B45" s="12"/>
-      <c r="C45" s="100"/>
-      <c r="D45" s="100"/>
-      <c r="E45" s="100"/>
-      <c r="F45" s="100"/>
+      <c r="C45" s="85"/>
+      <c r="D45" s="85"/>
+      <c r="E45" s="85"/>
+      <c r="F45" s="85"/>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
@@ -7062,10 +6351,10 @@
     </row>
     <row r="46" spans="2:11" s="8" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B46" s="12"/>
-      <c r="C46" s="101"/>
-      <c r="D46" s="101"/>
-      <c r="E46" s="101"/>
-      <c r="F46" s="101"/>
+      <c r="C46" s="86"/>
+      <c r="D46" s="86"/>
+      <c r="E46" s="86"/>
+      <c r="F46" s="86"/>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
@@ -7099,11 +6388,11 @@
     <row r="49" spans="2:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
-      <c r="D49" s="94" t="s">
+      <c r="D49" s="79" t="s">
         <v>103</v>
       </c>
-      <c r="E49" s="94"/>
-      <c r="F49" s="94"/>
+      <c r="E49" s="79"/>
+      <c r="F49" s="79"/>
       <c r="G49" s="12"/>
       <c r="H49" s="12"/>
       <c r="I49" s="12"/>
@@ -7113,10 +6402,10 @@
     <row r="50" spans="2:11" s="8" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
-      <c r="D50" s="103" t="s">
+      <c r="D50" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="E50" s="103"/>
+      <c r="E50" s="95"/>
       <c r="F50" s="13" t="s">
         <v>13</v>
       </c>
@@ -7129,10 +6418,10 @@
     <row r="51" spans="2:11" s="8" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
-      <c r="D51" s="103" t="s">
+      <c r="D51" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="E51" s="103"/>
+      <c r="E51" s="95"/>
       <c r="F51" s="13" t="s">
         <v>14</v>
       </c>
@@ -7312,12 +6601,12 @@
     </row>
     <row r="63" spans="2:11" s="8" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B63" s="12"/>
-      <c r="C63" s="102" t="s">
+      <c r="C63" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="D63" s="102"/>
-      <c r="E63" s="102"/>
-      <c r="F63" s="102"/>
+      <c r="D63" s="87"/>
+      <c r="E63" s="87"/>
+      <c r="F63" s="87"/>
       <c r="G63" s="12"/>
       <c r="H63" s="12"/>
       <c r="I63" s="12"/>
@@ -7350,12 +6639,12 @@
     </row>
     <row r="66" spans="2:14" s="8" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B66" s="12"/>
-      <c r="C66" s="99" t="s">
+      <c r="C66" s="84" t="s">
         <v>101</v>
       </c>
-      <c r="D66" s="99"/>
-      <c r="E66" s="99"/>
-      <c r="F66" s="99"/>
+      <c r="D66" s="84"/>
+      <c r="E66" s="84"/>
+      <c r="F66" s="84"/>
       <c r="G66" s="12"/>
       <c r="H66" s="12"/>
       <c r="I66" s="12"/>
@@ -7364,10 +6653,10 @@
     </row>
     <row r="67" spans="2:14" s="8" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B67" s="12"/>
-      <c r="C67" s="100"/>
-      <c r="D67" s="100"/>
-      <c r="E67" s="100"/>
-      <c r="F67" s="100"/>
+      <c r="C67" s="85"/>
+      <c r="D67" s="85"/>
+      <c r="E67" s="85"/>
+      <c r="F67" s="85"/>
       <c r="G67" s="12"/>
       <c r="H67" s="12"/>
       <c r="I67" s="12"/>
@@ -7376,10 +6665,10 @@
     </row>
     <row r="68" spans="2:14" s="8" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B68" s="12"/>
-      <c r="C68" s="100"/>
-      <c r="D68" s="100"/>
-      <c r="E68" s="100"/>
-      <c r="F68" s="100"/>
+      <c r="C68" s="85"/>
+      <c r="D68" s="85"/>
+      <c r="E68" s="85"/>
+      <c r="F68" s="85"/>
       <c r="G68" s="12"/>
       <c r="H68" s="12"/>
       <c r="I68" s="12"/>
@@ -7388,10 +6677,10 @@
     </row>
     <row r="69" spans="2:14" s="8" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B69" s="12"/>
-      <c r="C69" s="100"/>
-      <c r="D69" s="100"/>
-      <c r="E69" s="100"/>
-      <c r="F69" s="100"/>
+      <c r="C69" s="85"/>
+      <c r="D69" s="85"/>
+      <c r="E69" s="85"/>
+      <c r="F69" s="85"/>
       <c r="G69" s="12"/>
       <c r="H69" s="12"/>
       <c r="I69" s="12"/>
@@ -7400,10 +6689,10 @@
     </row>
     <row r="70" spans="2:14" s="8" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B70" s="12"/>
-      <c r="C70" s="100"/>
-      <c r="D70" s="100"/>
-      <c r="E70" s="100"/>
-      <c r="F70" s="100"/>
+      <c r="C70" s="85"/>
+      <c r="D70" s="85"/>
+      <c r="E70" s="85"/>
+      <c r="F70" s="85"/>
       <c r="G70" s="12"/>
       <c r="H70" s="12"/>
       <c r="I70" s="12"/>
@@ -7412,10 +6701,10 @@
     </row>
     <row r="71" spans="2:14" s="8" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B71" s="12"/>
-      <c r="C71" s="100"/>
-      <c r="D71" s="100"/>
-      <c r="E71" s="100"/>
-      <c r="F71" s="100"/>
+      <c r="C71" s="85"/>
+      <c r="D71" s="85"/>
+      <c r="E71" s="85"/>
+      <c r="F71" s="85"/>
       <c r="G71" s="12"/>
       <c r="H71" s="12"/>
       <c r="I71" s="12"/>
@@ -7424,10 +6713,10 @@
     </row>
     <row r="72" spans="2:14" s="8" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B72" s="12"/>
-      <c r="C72" s="100"/>
-      <c r="D72" s="100"/>
-      <c r="E72" s="100"/>
-      <c r="F72" s="100"/>
+      <c r="C72" s="85"/>
+      <c r="D72" s="85"/>
+      <c r="E72" s="85"/>
+      <c r="F72" s="85"/>
       <c r="G72" s="12"/>
       <c r="H72" s="12"/>
       <c r="I72" s="12"/>
@@ -7436,10 +6725,10 @@
     </row>
     <row r="73" spans="2:14" s="8" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B73" s="12"/>
-      <c r="C73" s="100"/>
-      <c r="D73" s="100"/>
-      <c r="E73" s="100"/>
-      <c r="F73" s="100"/>
+      <c r="C73" s="85"/>
+      <c r="D73" s="85"/>
+      <c r="E73" s="85"/>
+      <c r="F73" s="85"/>
       <c r="G73" s="12"/>
       <c r="H73" s="12"/>
       <c r="I73" s="12"/>
@@ -7448,10 +6737,10 @@
     </row>
     <row r="74" spans="2:14" s="8" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B74" s="12"/>
-      <c r="C74" s="100"/>
-      <c r="D74" s="100"/>
-      <c r="E74" s="100"/>
-      <c r="F74" s="100"/>
+      <c r="C74" s="85"/>
+      <c r="D74" s="85"/>
+      <c r="E74" s="85"/>
+      <c r="F74" s="85"/>
       <c r="G74" s="12"/>
       <c r="H74" s="12"/>
       <c r="I74" s="12"/>
@@ -7461,10 +6750,10 @@
     </row>
     <row r="75" spans="2:14" s="8" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B75" s="12"/>
-      <c r="C75" s="101"/>
-      <c r="D75" s="101"/>
-      <c r="E75" s="101"/>
-      <c r="F75" s="101"/>
+      <c r="C75" s="86"/>
+      <c r="D75" s="86"/>
+      <c r="E75" s="86"/>
+      <c r="F75" s="86"/>
       <c r="G75" s="12"/>
       <c r="H75" s="12"/>
       <c r="I75" s="12"/>
@@ -7499,10 +6788,10 @@
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
       <c r="D78" s="12"/>
-      <c r="E78" s="94" t="s">
+      <c r="E78" s="79" t="s">
         <v>104</v>
       </c>
-      <c r="F78" s="94"/>
+      <c r="F78" s="79"/>
       <c r="G78" s="12"/>
       <c r="H78" s="12"/>
       <c r="I78" s="12"/>
@@ -7663,12 +6952,12 @@
     </row>
     <row r="89" spans="2:11" s="8" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B89" s="12"/>
-      <c r="C89" s="99" t="s">
+      <c r="C89" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="99"/>
-      <c r="E89" s="99"/>
-      <c r="F89" s="99"/>
+      <c r="D89" s="84"/>
+      <c r="E89" s="84"/>
+      <c r="F89" s="84"/>
       <c r="G89" s="12"/>
       <c r="H89" s="12"/>
       <c r="I89" s="12"/>
@@ -7677,10 +6966,10 @@
     </row>
     <row r="90" spans="2:11" s="8" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B90" s="12"/>
-      <c r="C90" s="100"/>
-      <c r="D90" s="100"/>
-      <c r="E90" s="100"/>
-      <c r="F90" s="100"/>
+      <c r="C90" s="85"/>
+      <c r="D90" s="85"/>
+      <c r="E90" s="85"/>
+      <c r="F90" s="85"/>
       <c r="G90" s="12"/>
       <c r="H90" s="12"/>
       <c r="I90" s="12"/>
@@ -7689,10 +6978,10 @@
     </row>
     <row r="91" spans="2:11" s="8" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B91" s="12"/>
-      <c r="C91" s="101"/>
-      <c r="D91" s="101"/>
-      <c r="E91" s="101"/>
-      <c r="F91" s="101"/>
+      <c r="C91" s="86"/>
+      <c r="D91" s="86"/>
+      <c r="E91" s="86"/>
+      <c r="F91" s="86"/>
       <c r="G91" s="12"/>
       <c r="H91" s="12"/>
       <c r="I91" s="12"/>
@@ -7727,10 +7016,10 @@
       <c r="B94" s="12"/>
       <c r="C94" s="12"/>
       <c r="D94" s="12"/>
-      <c r="E94" s="94" t="s">
+      <c r="E94" s="79" t="s">
         <v>105</v>
       </c>
-      <c r="F94" s="94"/>
+      <c r="F94" s="79"/>
       <c r="G94" s="12"/>
       <c r="H94" s="12"/>
       <c r="I94" s="12"/>
@@ -7774,7 +7063,7 @@
       <c r="C97" s="12"/>
       <c r="D97" s="12"/>
       <c r="E97" s="17" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="F97" s="18" t="s">
         <v>80</v>
@@ -7879,12 +7168,12 @@
     </row>
     <row r="105" spans="2:11" s="8" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B105" s="12"/>
-      <c r="C105" s="111" t="s">
+      <c r="C105" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="D105" s="111"/>
-      <c r="E105" s="111"/>
-      <c r="F105" s="111"/>
+      <c r="D105" s="96"/>
+      <c r="E105" s="96"/>
+      <c r="F105" s="96"/>
       <c r="G105" s="12"/>
       <c r="H105" s="12"/>
       <c r="I105" s="12"/>
@@ -7919,10 +7208,10 @@
       <c r="B108" s="12"/>
       <c r="C108" s="12"/>
       <c r="D108" s="12"/>
-      <c r="E108" s="94" t="s">
+      <c r="E108" s="79" t="s">
         <v>113</v>
       </c>
-      <c r="F108" s="94"/>
+      <c r="F108" s="79"/>
       <c r="G108" s="12"/>
       <c r="H108" s="42"/>
       <c r="I108" s="12"/>
@@ -8083,12 +7372,12 @@
     </row>
     <row r="119" spans="2:11" s="8" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B119" s="12"/>
-      <c r="C119" s="112" t="s">
+      <c r="C119" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="D119" s="112"/>
-      <c r="E119" s="112"/>
-      <c r="F119" s="112"/>
+      <c r="D119" s="97"/>
+      <c r="E119" s="97"/>
+      <c r="F119" s="97"/>
       <c r="G119" s="12"/>
       <c r="H119" s="12"/>
       <c r="I119" s="12"/>
@@ -8097,10 +7386,10 @@
     </row>
     <row r="120" spans="2:11" s="8" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B120" s="12"/>
-      <c r="C120" s="113"/>
-      <c r="D120" s="113"/>
-      <c r="E120" s="113"/>
-      <c r="F120" s="113"/>
+      <c r="C120" s="98"/>
+      <c r="D120" s="98"/>
+      <c r="E120" s="98"/>
+      <c r="F120" s="98"/>
       <c r="G120" s="12"/>
       <c r="H120" s="12"/>
       <c r="I120" s="12"/>
@@ -8133,12 +7422,12 @@
     </row>
     <row r="123" spans="2:11" s="8" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B123" s="12"/>
-      <c r="C123" s="112" t="s">
+      <c r="C123" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="D123" s="112"/>
-      <c r="E123" s="112"/>
-      <c r="F123" s="112"/>
+      <c r="D123" s="97"/>
+      <c r="E123" s="97"/>
+      <c r="F123" s="97"/>
       <c r="G123" s="12"/>
       <c r="H123" s="12"/>
       <c r="I123" s="12"/>
@@ -8147,10 +7436,10 @@
     </row>
     <row r="124" spans="2:11" s="8" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B124" s="12"/>
-      <c r="C124" s="113"/>
-      <c r="D124" s="113"/>
-      <c r="E124" s="113"/>
-      <c r="F124" s="113"/>
+      <c r="C124" s="98"/>
+      <c r="D124" s="98"/>
+      <c r="E124" s="98"/>
+      <c r="F124" s="98"/>
       <c r="G124" s="12"/>
       <c r="H124" s="12"/>
       <c r="I124" s="12"/>
@@ -8222,1836 +7511,4 @@
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C7:K24"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="29.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" customWidth="1"/>
-    <col min="8" max="8" width="24.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C7" s="73" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C8" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="D8" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="70" t="s">
-        <v>122</v>
-      </c>
-      <c r="F8" s="70" t="s">
-        <v>136</v>
-      </c>
-      <c r="G8" s="70" t="s">
-        <v>143</v>
-      </c>
-      <c r="H8" s="70" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C9" s="114" t="s">
-        <v>137</v>
-      </c>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-    </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D10" s="75" t="s">
-        <v>124</v>
-      </c>
-      <c r="E10" s="75" t="s">
-        <v>123</v>
-      </c>
-      <c r="F10">
-        <f>1-0.9</f>
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="G10" s="75" t="s">
-        <v>123</v>
-      </c>
-      <c r="H10" s="75" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
-        <v>127</v>
-      </c>
-      <c r="D11" s="72" t="s">
-        <v>130</v>
-      </c>
-      <c r="E11" s="75" t="s">
-        <v>131</v>
-      </c>
-      <c r="F11">
-        <f>1042.35</f>
-        <v>1042.3499999999999</v>
-      </c>
-      <c r="G11" s="75" t="s">
-        <v>125</v>
-      </c>
-      <c r="H11" s="75" t="s">
-        <v>142</v>
-      </c>
-      <c r="J11" s="73"/>
-    </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D12" s="72" t="s">
-        <v>132</v>
-      </c>
-      <c r="E12" s="72" t="s">
-        <v>133</v>
-      </c>
-      <c r="F12" s="72">
-        <f>F11*F10</f>
-        <v>104.23499999999997</v>
-      </c>
-      <c r="G12" s="72" t="s">
-        <v>133</v>
-      </c>
-      <c r="H12" s="72" t="s">
-        <v>133</v>
-      </c>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
-    </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
-        <v>129</v>
-      </c>
-      <c r="D13" s="72" t="s">
-        <v>134</v>
-      </c>
-      <c r="E13" s="77" t="s">
-        <v>135</v>
-      </c>
-      <c r="F13" s="76">
-        <f>ROUND(F12,2)</f>
-        <v>104.24</v>
-      </c>
-      <c r="G13" s="76" t="s">
-        <v>135</v>
-      </c>
-      <c r="H13" s="76" t="s">
-        <v>135</v>
-      </c>
-      <c r="K13" s="73"/>
-    </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C14" s="114" t="s">
-        <v>145</v>
-      </c>
-      <c r="D14" s="114"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
-    </row>
-    <row r="15" spans="3:11" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="C15" s="73" t="s">
-        <v>149</v>
-      </c>
-      <c r="D15" s="78" t="s">
-        <v>153</v>
-      </c>
-      <c r="E15" s="75" t="s">
-        <v>148</v>
-      </c>
-      <c r="F15" s="74">
-        <f xml:space="preserve"> 10 * (1.06 * 0.95) * 1.5</f>
-        <v>15.104999999999997</v>
-      </c>
-      <c r="G15" s="75" t="s">
-        <v>147</v>
-      </c>
-      <c r="H15" s="75"/>
-    </row>
-    <row r="16" spans="3:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="C16" s="73" t="s">
-        <v>146</v>
-      </c>
-      <c r="D16" s="78" t="s">
-        <v>150</v>
-      </c>
-      <c r="E16" s="79" t="s">
-        <v>152</v>
-      </c>
-      <c r="F16">
-        <f>ROUND(F15,2)</f>
-        <v>15.11</v>
-      </c>
-      <c r="G16" s="78" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C21" s="73" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C22" s="73" t="s">
-        <v>140</v>
-      </c>
-      <c r="D22" s="73" t="s">
-        <v>141</v>
-      </c>
-      <c r="E22" s="73" t="s">
-        <v>151</v>
-      </c>
-      <c r="F22" s="73"/>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C23" s="70" t="s">
-        <v>140</v>
-      </c>
-      <c r="D23" s="70" t="s">
-        <v>129</v>
-      </c>
-      <c r="E23" s="70" t="s">
-        <v>146</v>
-      </c>
-      <c r="F23" s="70"/>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>104.24</v>
-      </c>
-      <c r="E24">
-        <v>15.11</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C14:F14"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:H25"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="73" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C8" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="73" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="82" t="s">
-        <v>179</v>
-      </c>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="70" t="s">
-        <v>155</v>
-      </c>
-      <c r="C13" s="70" t="s">
-        <v>154</v>
-      </c>
-      <c r="D13" s="70" t="s">
-        <v>160</v>
-      </c>
-      <c r="E13" s="115" t="s">
-        <v>161</v>
-      </c>
-      <c r="F13" s="115"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="70" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" s="73" t="s">
-        <v>162</v>
-      </c>
-      <c r="D14" s="73" t="s">
-        <v>165</v>
-      </c>
-      <c r="E14" s="73" t="s">
-        <v>168</v>
-      </c>
-      <c r="F14" s="73" t="s">
-        <v>171</v>
-      </c>
-      <c r="H14" s="73" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" s="73" t="s">
-        <v>163</v>
-      </c>
-      <c r="D15" s="73" t="s">
-        <v>166</v>
-      </c>
-      <c r="E15" s="73" t="s">
-        <v>169</v>
-      </c>
-      <c r="H15" s="73" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16" s="73" t="s">
-        <v>164</v>
-      </c>
-      <c r="D16" s="73" t="s">
-        <v>167</v>
-      </c>
-      <c r="E16" s="73" t="s">
-        <v>170</v>
-      </c>
-      <c r="H16" s="73" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="B21" s="116" t="s">
-        <v>181</v>
-      </c>
-      <c r="C21" s="116"/>
-    </row>
-    <row r="22" spans="2:3" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="B22" s="83" t="s">
-        <v>172</v>
-      </c>
-      <c r="C22" s="83" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="B23" s="84" t="s">
-        <v>174</v>
-      </c>
-      <c r="C23" s="117" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="B24" s="84" t="s">
-        <v>177</v>
-      </c>
-      <c r="C24" s="118"/>
-    </row>
-    <row r="25" spans="2:3" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="B25" s="84" t="s">
-        <v>178</v>
-      </c>
-      <c r="C25" s="118"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="C23:C25"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:N84"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="40.5703125" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-    </row>
-    <row r="5" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="94" t="s">
-        <v>194</v>
-      </c>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="12"/>
-    </row>
-    <row r="6" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="94" t="s">
-        <v>182</v>
-      </c>
-      <c r="E6" s="94"/>
-      <c r="F6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="146" t="s">
-        <v>197</v>
-      </c>
-      <c r="K6" s="146" t="s">
-        <v>140</v>
-      </c>
-      <c r="L6" s="146" t="s">
-        <v>198</v>
-      </c>
-      <c r="M6" s="147" t="s">
-        <v>199</v>
-      </c>
-      <c r="N6" s="12"/>
-    </row>
-    <row r="7" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="81" t="s">
-        <v>183</v>
-      </c>
-      <c r="E7" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="F7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="K7" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="L7" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="M7" s="148" t="s">
-        <v>176</v>
-      </c>
-      <c r="N7" s="12"/>
-    </row>
-    <row r="8" spans="2:14" ht="14.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="119" t="s">
-        <v>184</v>
-      </c>
-      <c r="E8" s="123" t="s">
-        <v>189</v>
-      </c>
-      <c r="F8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="136" t="s">
-        <v>184</v>
-      </c>
-      <c r="K8" s="137">
-        <v>5</v>
-      </c>
-      <c r="L8" s="137">
-        <v>3</v>
-      </c>
-      <c r="M8" s="138">
-        <v>2</v>
-      </c>
-      <c r="N8" s="12"/>
-    </row>
-    <row r="9" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="120" t="s">
-        <v>185</v>
-      </c>
-      <c r="E9" s="124" t="s">
-        <v>190</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="139" t="s">
-        <v>184</v>
-      </c>
-      <c r="K9" s="140">
-        <v>5</v>
-      </c>
-      <c r="L9" s="139"/>
-      <c r="M9" s="141">
-        <v>5</v>
-      </c>
-      <c r="N9" s="12"/>
-    </row>
-    <row r="10" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="120" t="s">
-        <v>186</v>
-      </c>
-      <c r="E10" s="124" t="s">
-        <v>191</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="139" t="s">
-        <v>184</v>
-      </c>
-      <c r="K10" s="139"/>
-      <c r="L10" s="140">
-        <v>3</v>
-      </c>
-      <c r="M10" s="141">
-        <v>-3</v>
-      </c>
-      <c r="N10" s="12"/>
-    </row>
-    <row r="11" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="121" t="s">
-        <v>187</v>
-      </c>
-      <c r="E11" s="125" t="s">
-        <v>192</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="142" t="s">
-        <v>184</v>
-      </c>
-      <c r="K11" s="142"/>
-      <c r="L11" s="142"/>
-      <c r="M11" s="143"/>
-      <c r="N11" s="12"/>
-    </row>
-    <row r="12" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="122" t="s">
-        <v>188</v>
-      </c>
-      <c r="E12" s="126" t="s">
-        <v>193</v>
-      </c>
-      <c r="F12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="136" t="s">
-        <v>185</v>
-      </c>
-      <c r="K12" s="137">
-        <v>5</v>
-      </c>
-      <c r="L12" s="137">
-        <v>3</v>
-      </c>
-      <c r="M12" s="144">
-        <v>8</v>
-      </c>
-      <c r="N12" s="12"/>
-    </row>
-    <row r="13" spans="2:14" ht="14.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="139" t="s">
-        <v>185</v>
-      </c>
-      <c r="K13" s="140">
-        <v>5</v>
-      </c>
-      <c r="L13" s="139"/>
-      <c r="M13" s="141">
-        <v>5</v>
-      </c>
-      <c r="N13" s="12"/>
-    </row>
-    <row r="14" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="139" t="s">
-        <v>185</v>
-      </c>
-      <c r="K14" s="139"/>
-      <c r="L14" s="140">
-        <v>3</v>
-      </c>
-      <c r="M14" s="141">
-        <v>3</v>
-      </c>
-      <c r="N14" s="12"/>
-    </row>
-    <row r="15" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="142" t="s">
-        <v>185</v>
-      </c>
-      <c r="K15" s="142"/>
-      <c r="L15" s="142"/>
-      <c r="M15" s="143"/>
-      <c r="N15" s="12"/>
-    </row>
-    <row r="16" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="136" t="s">
-        <v>186</v>
-      </c>
-      <c r="K16" s="137">
-        <v>8</v>
-      </c>
-      <c r="L16" s="137">
-        <v>4</v>
-      </c>
-      <c r="M16" s="144">
-        <v>2</v>
-      </c>
-      <c r="N16" s="12"/>
-    </row>
-    <row r="17" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="139" t="s">
-        <v>186</v>
-      </c>
-      <c r="K17" s="140">
-        <v>8</v>
-      </c>
-      <c r="L17" s="139"/>
-      <c r="M17" s="141">
-        <v>8</v>
-      </c>
-      <c r="N17" s="12"/>
-    </row>
-    <row r="18" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="139" t="s">
-        <v>186</v>
-      </c>
-      <c r="K18" s="139"/>
-      <c r="L18" s="140">
-        <v>4</v>
-      </c>
-      <c r="M18" s="145">
-        <v>0.25</v>
-      </c>
-      <c r="N18" s="12"/>
-    </row>
-    <row r="19" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="142" t="s">
-        <v>186</v>
-      </c>
-      <c r="K19" s="142"/>
-      <c r="L19" s="142"/>
-      <c r="M19" s="143"/>
-      <c r="N19" s="12"/>
-    </row>
-    <row r="20" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="136" t="s">
-        <v>187</v>
-      </c>
-      <c r="K20" s="137">
-        <v>8</v>
-      </c>
-      <c r="L20" s="137">
-        <v>4</v>
-      </c>
-      <c r="M20" s="144">
-        <v>32</v>
-      </c>
-      <c r="N20" s="12"/>
-    </row>
-    <row r="21" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="139" t="s">
-        <v>187</v>
-      </c>
-      <c r="K21" s="140">
-        <v>8</v>
-      </c>
-      <c r="L21" s="139"/>
-      <c r="M21" s="141">
-        <v>8</v>
-      </c>
-      <c r="N21" s="12"/>
-    </row>
-    <row r="22" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="139" t="s">
-        <v>187</v>
-      </c>
-      <c r="K22" s="139"/>
-      <c r="L22" s="140">
-        <v>4</v>
-      </c>
-      <c r="M22" s="141">
-        <v>4</v>
-      </c>
-      <c r="N22" s="12"/>
-    </row>
-    <row r="23" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="142" t="s">
-        <v>187</v>
-      </c>
-      <c r="K23" s="142"/>
-      <c r="L23" s="142"/>
-      <c r="M23" s="143"/>
-      <c r="N23" s="12"/>
-    </row>
-    <row r="24" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="136" t="s">
-        <v>188</v>
-      </c>
-      <c r="K24" s="137">
-        <v>2</v>
-      </c>
-      <c r="L24" s="137">
-        <v>3</v>
-      </c>
-      <c r="M24" s="144">
-        <v>8</v>
-      </c>
-      <c r="N24" s="12"/>
-    </row>
-    <row r="25" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="139" t="s">
-        <v>188</v>
-      </c>
-      <c r="K25" s="140">
-        <v>2</v>
-      </c>
-      <c r="L25" s="139"/>
-      <c r="M25" s="141">
-        <v>1</v>
-      </c>
-      <c r="N25" s="12"/>
-    </row>
-    <row r="26" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="139" t="s">
-        <v>188</v>
-      </c>
-      <c r="K26" s="139"/>
-      <c r="L26" s="140">
-        <v>3</v>
-      </c>
-      <c r="M26" s="141"/>
-      <c r="N26" s="12"/>
-    </row>
-    <row r="27" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="142" t="s">
-        <v>188</v>
-      </c>
-      <c r="K27" s="142"/>
-      <c r="L27" s="142"/>
-      <c r="M27" s="143"/>
-      <c r="N27" s="12"/>
-    </row>
-    <row r="28" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-    </row>
-    <row r="29" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-    </row>
-    <row r="30" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-    </row>
-    <row r="31" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="67"/>
-      <c r="L31" s="67"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-    </row>
-    <row r="32" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="94" t="s">
-        <v>201</v>
-      </c>
-      <c r="K32" s="94"/>
-      <c r="L32" s="94"/>
-      <c r="M32" s="94"/>
-      <c r="N32" s="12"/>
-    </row>
-    <row r="33" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="94" t="s">
-        <v>200</v>
-      </c>
-      <c r="E33" s="94"/>
-      <c r="F33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="127" t="s">
-        <v>197</v>
-      </c>
-      <c r="K33" s="127" t="s">
-        <v>140</v>
-      </c>
-      <c r="L33" s="127" t="s">
-        <v>198</v>
-      </c>
-      <c r="M33" s="80" t="s">
-        <v>199</v>
-      </c>
-      <c r="N33" s="12"/>
-    </row>
-    <row r="34" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="81" t="s">
-        <v>183</v>
-      </c>
-      <c r="E34" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="F34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="81" t="s">
-        <v>183</v>
-      </c>
-      <c r="K34" s="81" t="s">
-        <v>195</v>
-      </c>
-      <c r="L34" s="81" t="s">
-        <v>196</v>
-      </c>
-      <c r="M34" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="N34" s="12"/>
-    </row>
-    <row r="35" spans="2:14" ht="14.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="119" t="s">
-        <v>184</v>
-      </c>
-      <c r="E35" s="123" t="s">
-        <v>189</v>
-      </c>
-      <c r="F35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="119" t="s">
-        <v>184</v>
-      </c>
-      <c r="K35" s="128">
-        <v>5</v>
-      </c>
-      <c r="L35" s="128">
-        <v>3</v>
-      </c>
-      <c r="M35" s="129">
-        <v>2</v>
-      </c>
-      <c r="N35" s="12"/>
-    </row>
-    <row r="36" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="120" t="s">
-        <v>185</v>
-      </c>
-      <c r="E36" s="124" t="s">
-        <v>190</v>
-      </c>
-      <c r="F36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="120" t="s">
-        <v>184</v>
-      </c>
-      <c r="K36" s="130">
-        <v>5</v>
-      </c>
-      <c r="L36" s="121"/>
-      <c r="M36" s="132">
-        <v>5</v>
-      </c>
-      <c r="N36" s="12"/>
-    </row>
-    <row r="37" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="120" t="s">
-        <v>186</v>
-      </c>
-      <c r="E37" s="124" t="s">
-        <v>191</v>
-      </c>
-      <c r="F37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="120" t="s">
-        <v>184</v>
-      </c>
-      <c r="K37" s="121"/>
-      <c r="L37" s="130">
-        <v>3</v>
-      </c>
-      <c r="M37" s="132">
-        <v>-3</v>
-      </c>
-      <c r="N37" s="12"/>
-    </row>
-    <row r="38" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="121" t="s">
-        <v>187</v>
-      </c>
-      <c r="E38" s="125" t="s">
-        <v>192</v>
-      </c>
-      <c r="F38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="133" t="s">
-        <v>184</v>
-      </c>
-      <c r="K38" s="133"/>
-      <c r="L38" s="133"/>
-      <c r="M38" s="134"/>
-      <c r="N38" s="12"/>
-    </row>
-    <row r="39" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="122" t="s">
-        <v>188</v>
-      </c>
-      <c r="E39" s="126" t="s">
-        <v>193</v>
-      </c>
-      <c r="F39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="119" t="s">
-        <v>185</v>
-      </c>
-      <c r="K39" s="128">
-        <v>5</v>
-      </c>
-      <c r="L39" s="128">
-        <v>3</v>
-      </c>
-      <c r="M39" s="135">
-        <v>8</v>
-      </c>
-      <c r="N39" s="12"/>
-    </row>
-    <row r="40" spans="2:14" ht="14.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="121" t="s">
-        <v>185</v>
-      </c>
-      <c r="K40" s="130">
-        <v>5</v>
-      </c>
-      <c r="L40" s="121"/>
-      <c r="M40" s="132">
-        <v>5</v>
-      </c>
-      <c r="N40" s="12"/>
-    </row>
-    <row r="41" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="121" t="s">
-        <v>185</v>
-      </c>
-      <c r="K41" s="121"/>
-      <c r="L41" s="130">
-        <v>3</v>
-      </c>
-      <c r="M41" s="132">
-        <v>3</v>
-      </c>
-      <c r="N41" s="12"/>
-    </row>
-    <row r="42" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="133" t="s">
-        <v>185</v>
-      </c>
-      <c r="K42" s="133"/>
-      <c r="L42" s="133"/>
-      <c r="M42" s="134"/>
-      <c r="N42" s="12"/>
-    </row>
-    <row r="43" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="119" t="s">
-        <v>186</v>
-      </c>
-      <c r="K43" s="128">
-        <v>8</v>
-      </c>
-      <c r="L43" s="128">
-        <v>4</v>
-      </c>
-      <c r="M43" s="135">
-        <v>2</v>
-      </c>
-      <c r="N43" s="12"/>
-    </row>
-    <row r="44" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="121" t="s">
-        <v>186</v>
-      </c>
-      <c r="K44" s="130">
-        <v>8</v>
-      </c>
-      <c r="L44" s="121"/>
-      <c r="M44" s="132">
-        <v>8</v>
-      </c>
-      <c r="N44" s="12"/>
-    </row>
-    <row r="45" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="121" t="s">
-        <v>186</v>
-      </c>
-      <c r="K45" s="121"/>
-      <c r="L45" s="130">
-        <v>4</v>
-      </c>
-      <c r="M45" s="131">
-        <v>0.25</v>
-      </c>
-      <c r="N45" s="12"/>
-    </row>
-    <row r="46" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="133" t="s">
-        <v>186</v>
-      </c>
-      <c r="K46" s="133"/>
-      <c r="L46" s="133"/>
-      <c r="M46" s="134"/>
-      <c r="N46" s="12"/>
-    </row>
-    <row r="47" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="119" t="s">
-        <v>187</v>
-      </c>
-      <c r="K47" s="128">
-        <v>8</v>
-      </c>
-      <c r="L47" s="128">
-        <v>4</v>
-      </c>
-      <c r="M47" s="135">
-        <v>32</v>
-      </c>
-      <c r="N47" s="12"/>
-    </row>
-    <row r="48" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="121" t="s">
-        <v>187</v>
-      </c>
-      <c r="K48" s="130">
-        <v>8</v>
-      </c>
-      <c r="L48" s="121"/>
-      <c r="M48" s="132">
-        <v>8</v>
-      </c>
-      <c r="N48" s="12"/>
-    </row>
-    <row r="49" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="121" t="s">
-        <v>187</v>
-      </c>
-      <c r="K49" s="121"/>
-      <c r="L49" s="130">
-        <v>4</v>
-      </c>
-      <c r="M49" s="132">
-        <v>4</v>
-      </c>
-      <c r="N49" s="12"/>
-    </row>
-    <row r="50" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="133" t="s">
-        <v>187</v>
-      </c>
-      <c r="K50" s="133"/>
-      <c r="L50" s="133"/>
-      <c r="M50" s="134"/>
-      <c r="N50" s="12"/>
-    </row>
-    <row r="51" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="119" t="s">
-        <v>188</v>
-      </c>
-      <c r="K51" s="128">
-        <v>2</v>
-      </c>
-      <c r="L51" s="128">
-        <v>3</v>
-      </c>
-      <c r="M51" s="135">
-        <v>8</v>
-      </c>
-      <c r="N51" s="12"/>
-    </row>
-    <row r="52" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="121" t="s">
-        <v>188</v>
-      </c>
-      <c r="K52" s="130">
-        <v>2</v>
-      </c>
-      <c r="L52" s="121"/>
-      <c r="M52" s="132">
-        <v>1</v>
-      </c>
-      <c r="N52" s="12"/>
-    </row>
-    <row r="53" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="121" t="s">
-        <v>188</v>
-      </c>
-      <c r="K53" s="121"/>
-      <c r="L53" s="130">
-        <v>3</v>
-      </c>
-      <c r="M53" s="132"/>
-      <c r="N53" s="12"/>
-    </row>
-    <row r="54" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="133" t="s">
-        <v>188</v>
-      </c>
-      <c r="K54" s="133"/>
-      <c r="L54" s="133"/>
-      <c r="M54" s="134"/>
-      <c r="N54" s="12"/>
-    </row>
-    <row r="55" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
-      <c r="L55" s="12"/>
-      <c r="M55" s="12"/>
-      <c r="N55" s="12"/>
-    </row>
-    <row r="56" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
-      <c r="M56" s="12"/>
-      <c r="N56" s="12"/>
-    </row>
-    <row r="57" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
-      <c r="L57" s="12"/>
-      <c r="M57" s="12"/>
-      <c r="N57" s="12"/>
-    </row>
-    <row r="58" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="67"/>
-      <c r="L58" s="67"/>
-      <c r="M58" s="12"/>
-      <c r="N58" s="12"/>
-    </row>
-    <row r="59" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="94" t="s">
-        <v>203</v>
-      </c>
-      <c r="K59" s="94"/>
-      <c r="L59" s="94"/>
-      <c r="M59" s="94"/>
-      <c r="N59" s="12"/>
-    </row>
-    <row r="60" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="94" t="s">
-        <v>202</v>
-      </c>
-      <c r="E60" s="94"/>
-      <c r="F60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="127" t="s">
-        <v>197</v>
-      </c>
-      <c r="K60" s="127" t="s">
-        <v>140</v>
-      </c>
-      <c r="L60" s="127" t="s">
-        <v>198</v>
-      </c>
-      <c r="M60" s="80" t="s">
-        <v>199</v>
-      </c>
-      <c r="N60" s="12"/>
-    </row>
-    <row r="61" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="81" t="s">
-        <v>183</v>
-      </c>
-      <c r="E61" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="F61" s="12"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="81" t="s">
-        <v>183</v>
-      </c>
-      <c r="K61" s="81" t="s">
-        <v>195</v>
-      </c>
-      <c r="L61" s="81" t="s">
-        <v>196</v>
-      </c>
-      <c r="M61" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="N61" s="12"/>
-    </row>
-    <row r="62" spans="2:14" ht="14.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="119" t="s">
-        <v>184</v>
-      </c>
-      <c r="E62" s="123" t="s">
-        <v>189</v>
-      </c>
-      <c r="F62" s="12"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="119" t="s">
-        <v>184</v>
-      </c>
-      <c r="K62" s="128">
-        <v>5</v>
-      </c>
-      <c r="L62" s="128">
-        <v>3</v>
-      </c>
-      <c r="M62" s="129">
-        <v>2</v>
-      </c>
-      <c r="N62" s="12"/>
-    </row>
-    <row r="63" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="120" t="s">
-        <v>185</v>
-      </c>
-      <c r="E63" s="124" t="s">
-        <v>190</v>
-      </c>
-      <c r="F63" s="12"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="120" t="s">
-        <v>184</v>
-      </c>
-      <c r="K63" s="130">
-        <v>5</v>
-      </c>
-      <c r="L63" s="121"/>
-      <c r="M63" s="132">
-        <v>5</v>
-      </c>
-      <c r="N63" s="12"/>
-    </row>
-    <row r="64" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="120" t="s">
-        <v>186</v>
-      </c>
-      <c r="E64" s="124" t="s">
-        <v>191</v>
-      </c>
-      <c r="F64" s="12"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="120" t="s">
-        <v>184</v>
-      </c>
-      <c r="K64" s="121"/>
-      <c r="L64" s="130">
-        <v>3</v>
-      </c>
-      <c r="M64" s="132">
-        <v>-3</v>
-      </c>
-      <c r="N64" s="12"/>
-    </row>
-    <row r="65" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="121" t="s">
-        <v>187</v>
-      </c>
-      <c r="E65" s="125" t="s">
-        <v>192</v>
-      </c>
-      <c r="F65" s="12"/>
-      <c r="H65" s="12"/>
-      <c r="I65" s="12"/>
-      <c r="J65" s="133" t="s">
-        <v>184</v>
-      </c>
-      <c r="K65" s="133"/>
-      <c r="L65" s="133"/>
-      <c r="M65" s="134"/>
-      <c r="N65" s="12"/>
-    </row>
-    <row r="66" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="122" t="s">
-        <v>188</v>
-      </c>
-      <c r="E66" s="126" t="s">
-        <v>193</v>
-      </c>
-      <c r="F66" s="12"/>
-      <c r="H66" s="12"/>
-      <c r="I66" s="12"/>
-      <c r="J66" s="119" t="s">
-        <v>185</v>
-      </c>
-      <c r="K66" s="128">
-        <v>5</v>
-      </c>
-      <c r="L66" s="128">
-        <v>3</v>
-      </c>
-      <c r="M66" s="135">
-        <v>8</v>
-      </c>
-      <c r="N66" s="12"/>
-    </row>
-    <row r="67" spans="2:14" ht="14.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="47"/>
-      <c r="F67" s="12"/>
-      <c r="H67" s="12"/>
-      <c r="I67" s="12"/>
-      <c r="J67" s="121" t="s">
-        <v>185</v>
-      </c>
-      <c r="K67" s="130">
-        <v>5</v>
-      </c>
-      <c r="L67" s="121"/>
-      <c r="M67" s="132">
-        <v>5</v>
-      </c>
-      <c r="N67" s="12"/>
-    </row>
-    <row r="68" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="H68" s="12"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="121" t="s">
-        <v>185</v>
-      </c>
-      <c r="K68" s="121"/>
-      <c r="L68" s="130">
-        <v>3</v>
-      </c>
-      <c r="M68" s="132">
-        <v>3</v>
-      </c>
-      <c r="N68" s="12"/>
-    </row>
-    <row r="69" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="H69" s="12"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="133" t="s">
-        <v>185</v>
-      </c>
-      <c r="K69" s="133"/>
-      <c r="L69" s="133"/>
-      <c r="M69" s="134"/>
-      <c r="N69" s="12"/>
-    </row>
-    <row r="70" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="H70" s="12"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="119" t="s">
-        <v>186</v>
-      </c>
-      <c r="K70" s="128">
-        <v>8</v>
-      </c>
-      <c r="L70" s="128">
-        <v>4</v>
-      </c>
-      <c r="M70" s="135">
-        <v>2</v>
-      </c>
-      <c r="N70" s="12"/>
-    </row>
-    <row r="71" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="H71" s="12"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="121" t="s">
-        <v>186</v>
-      </c>
-      <c r="K71" s="130">
-        <v>8</v>
-      </c>
-      <c r="L71" s="121"/>
-      <c r="M71" s="132">
-        <v>8</v>
-      </c>
-      <c r="N71" s="12"/>
-    </row>
-    <row r="72" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="H72" s="12"/>
-      <c r="I72" s="12"/>
-      <c r="J72" s="121" t="s">
-        <v>186</v>
-      </c>
-      <c r="K72" s="121"/>
-      <c r="L72" s="130">
-        <v>4</v>
-      </c>
-      <c r="M72" s="131">
-        <v>0.25</v>
-      </c>
-      <c r="N72" s="12"/>
-    </row>
-    <row r="73" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="H73" s="12"/>
-      <c r="I73" s="12"/>
-      <c r="J73" s="133" t="s">
-        <v>186</v>
-      </c>
-      <c r="K73" s="133"/>
-      <c r="L73" s="133"/>
-      <c r="M73" s="134"/>
-      <c r="N73" s="12"/>
-    </row>
-    <row r="74" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="H74" s="12"/>
-      <c r="I74" s="12"/>
-      <c r="J74" s="119" t="s">
-        <v>187</v>
-      </c>
-      <c r="K74" s="128">
-        <v>8</v>
-      </c>
-      <c r="L74" s="128">
-        <v>4</v>
-      </c>
-      <c r="M74" s="135">
-        <v>32</v>
-      </c>
-      <c r="N74" s="12"/>
-    </row>
-    <row r="75" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="H75" s="12"/>
-      <c r="I75" s="12"/>
-      <c r="J75" s="121" t="s">
-        <v>187</v>
-      </c>
-      <c r="K75" s="130">
-        <v>8</v>
-      </c>
-      <c r="L75" s="121"/>
-      <c r="M75" s="132">
-        <v>8</v>
-      </c>
-      <c r="N75" s="12"/>
-    </row>
-    <row r="76" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="H76" s="12"/>
-      <c r="I76" s="12"/>
-      <c r="J76" s="121" t="s">
-        <v>187</v>
-      </c>
-      <c r="K76" s="121"/>
-      <c r="L76" s="130">
-        <v>4</v>
-      </c>
-      <c r="M76" s="132">
-        <v>4</v>
-      </c>
-      <c r="N76" s="12"/>
-    </row>
-    <row r="77" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="H77" s="12"/>
-      <c r="I77" s="12"/>
-      <c r="J77" s="133" t="s">
-        <v>187</v>
-      </c>
-      <c r="K77" s="133"/>
-      <c r="L77" s="133"/>
-      <c r="M77" s="134"/>
-      <c r="N77" s="12"/>
-    </row>
-    <row r="78" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="119" t="s">
-        <v>188</v>
-      </c>
-      <c r="K78" s="128">
-        <v>2</v>
-      </c>
-      <c r="L78" s="128">
-        <v>3</v>
-      </c>
-      <c r="M78" s="135">
-        <v>8</v>
-      </c>
-      <c r="N78" s="12"/>
-    </row>
-    <row r="79" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="H79" s="12"/>
-      <c r="I79" s="12"/>
-      <c r="J79" s="121" t="s">
-        <v>188</v>
-      </c>
-      <c r="K79" s="130">
-        <v>2</v>
-      </c>
-      <c r="L79" s="121"/>
-      <c r="M79" s="132">
-        <v>1</v>
-      </c>
-      <c r="N79" s="12"/>
-    </row>
-    <row r="80" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="H80" s="12"/>
-      <c r="I80" s="12"/>
-      <c r="J80" s="121" t="s">
-        <v>188</v>
-      </c>
-      <c r="K80" s="121"/>
-      <c r="L80" s="130">
-        <v>3</v>
-      </c>
-      <c r="M80" s="132"/>
-      <c r="N80" s="12"/>
-    </row>
-    <row r="81" spans="8:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="H81" s="12"/>
-      <c r="I81" s="12"/>
-      <c r="J81" s="133" t="s">
-        <v>188</v>
-      </c>
-      <c r="K81" s="133"/>
-      <c r="L81" s="133"/>
-      <c r="M81" s="134"/>
-      <c r="N81" s="12"/>
-    </row>
-    <row r="82" spans="8:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="H82" s="12"/>
-      <c r="I82" s="12"/>
-      <c r="J82" s="12"/>
-      <c r="K82" s="12"/>
-      <c r="L82" s="12"/>
-      <c r="M82" s="12"/>
-      <c r="N82" s="12"/>
-    </row>
-    <row r="83" spans="8:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="H83" s="12"/>
-      <c r="I83" s="12"/>
-      <c r="J83" s="12"/>
-      <c r="K83" s="12"/>
-      <c r="L83" s="12"/>
-      <c r="M83" s="12"/>
-      <c r="N83" s="12"/>
-    </row>
-    <row r="84" spans="8:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="H84" s="12"/>
-      <c r="I84" s="12"/>
-      <c r="J84" s="12"/>
-      <c r="K84" s="12"/>
-      <c r="L84" s="12"/>
-      <c r="M84" s="12"/>
-      <c r="N84" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="J59:M59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="J32:M32"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/DESIGN/rules/Tutorial 1 - Introduction to Decision Tables/Tutorial1 - Intro to Decision Tables.xlsx
+++ b/DESIGN/rules/Tutorial 1 - Introduction to Decision Tables/Tutorial1 - Intro to Decision Tables.xlsx
@@ -5566,7 +5566,7 @@
         <v>43</v>
       </c>
       <c r="E71" s="53" t="n">
-        <v>55156.0</v>
+        <v>55150.0</v>
       </c>
       <c r="F71" s="56">
         <v>47350</v>

--- a/DESIGN/rules/Tutorial 1 - Introduction to Decision Tables/Tutorial1 - Intro to Decision Tables.xlsx
+++ b/DESIGN/rules/Tutorial 1 - Introduction to Decision Tables/Tutorial1 - Intro to Decision Tables.xlsx
@@ -5566,7 +5566,7 @@
         <v>43</v>
       </c>
       <c r="E71" s="53" t="n">
-        <v>55156.0</v>
+        <v>55160.0</v>
       </c>
       <c r="F71" s="56">
         <v>47350</v>

--- a/DESIGN/rules/Tutorial 1 - Introduction to Decision Tables/Tutorial1 - Intro to Decision Tables.xlsx
+++ b/DESIGN/rules/Tutorial 1 - Introduction to Decision Tables/Tutorial1 - Intro to Decision Tables.xlsx
@@ -5566,7 +5566,7 @@
         <v>43</v>
       </c>
       <c r="E71" s="53" t="n">
-        <v>55156.0</v>
+        <v>55140.0</v>
       </c>
       <c r="F71" s="56">
         <v>47350</v>

--- a/DESIGN/rules/Tutorial 1 - Introduction to Decision Tables/Tutorial1 - Intro to Decision Tables.xlsx
+++ b/DESIGN/rules/Tutorial 1 - Introduction to Decision Tables/Tutorial1 - Intro to Decision Tables.xlsx
@@ -5566,7 +5566,7 @@
         <v>43</v>
       </c>
       <c r="E71" s="53" t="n">
-        <v>55140.0</v>
+        <v>55139.0</v>
       </c>
       <c r="F71" s="56">
         <v>47350</v>

--- a/DESIGN/rules/Tutorial 1 - Introduction to Decision Tables/Tutorial1 - Intro to Decision Tables.xlsx
+++ b/DESIGN/rules/Tutorial 1 - Introduction to Decision Tables/Tutorial1 - Intro to Decision Tables.xlsx
@@ -4169,8 +4169,8 @@
       <c r="E62" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F62" s="48">
-        <v>700</v>
+      <c r="F62" s="48" t="n">
+        <v>705.0</v>
       </c>
       <c r="G62" s="12"/>
     </row>
